--- a/数据整理/stocks/A股/深证主板/002831-裕同科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002831-裕同科技.xlsx
@@ -451,967 +451,1307 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4200</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6789</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3210</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1926</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0656</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6419</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5698</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5638</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4076</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4061</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3915</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3892</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2692</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2017</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>000014</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>华夏聚利债券</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>27.65</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2.16</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519697</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银优势行业混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>78.72</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519712</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银阿尔法核心混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>350006</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天治稳健双盈债券</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>121006</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银稳健增长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>72.13</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>121005</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银创新动力混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161219</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国投瑞银新兴产业混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>74.23</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>110012</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达科汇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>78.35</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000663</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>8.46</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>350006</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>天治稳健双盈债券</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>21.97</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001218</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>86.88</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005274</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中银景福回报混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>25.51</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008773</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中银景泰回报混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>22.05</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001907</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国投瑞银境煊灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001908</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国投瑞银境煊灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001576</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国泰智能装备股票A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>87.60</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>6.73</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008778</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>嘉实中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008779</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>嘉实中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002288</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中银稳进策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002535</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中银鑫利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>24.62</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002536</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中银鑫利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>24.62</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>011322</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>国泰智能装备股票C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>87.60</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>003293</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>易方达科瑞灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>81.13</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>163823</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中银稳健策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>34.36</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>006952</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中银景元回报混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>27.14</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>007318</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中银民丰回报混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>23.70</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005001</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>交银施罗德持续成长主题混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>84.84</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>005726</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>国泰价值精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>7.57</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>011324</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>国泰价值精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>7.57</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>161225</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>161232</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>8.04</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>161233</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>21.86</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>519020</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>8.22</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>519022</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>8.22</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1421,7 +1761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,15 +1782,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003293</t>
+          <t>519712</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达科瑞灵活配置混合</t>
+          <t>交银阿尔法核心混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82.37</t>
+          <t>61.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8403</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519712</t>
+          <t>010389</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银阿尔法核心混合</t>
+          <t>易方达科益混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.89</t>
+          <t>28.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4438</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>121006</t>
+          <t>121005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银稳健增长混合</t>
+          <t>国投瑞银创新动力混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>74.70</t>
+          <t>21.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0468</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>121005</t>
+          <t>001576</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银创新动力混合</t>
+          <t>国泰智能装备股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>12.15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8760</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161219</t>
+          <t>003293</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银新兴产业混合(LOF)</t>
+          <t>易方达科瑞灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>73.49</t>
+          <t>11.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5532</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002389</t>
+          <t>005726</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商安德灵活配置混合A</t>
+          <t>国泰价值精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24.33</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5168</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002390</t>
+          <t>161219</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商安德灵活配置混合C</t>
+          <t>国投瑞银新兴产业混合(LOF)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24.33</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>73.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4877</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002657</t>
+          <t>010338</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商安裕灵活配置混合A</t>
+          <t>国投瑞银远见成长混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21.81</t>
+          <t>19.28</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>59.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3895</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002658</t>
+          <t>121006</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商安裕灵活配置混合C</t>
+          <t>国投瑞银稳健增长混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>21.81</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3881</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002776</t>
+          <t>161232</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商安荣灵活配置混合A</t>
+          <t>国投瑞银瑞盛灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>23.25</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3692</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002777</t>
+          <t>000663</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商安荣灵活配置混合C</t>
+          <t>国投瑞银美丽中国灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>23.25</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3675</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000314</t>
+          <t>001218</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商瑞丰灵活配置混合A</t>
+          <t>国投瑞银精选收益灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3663</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1798,25 +2268,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002017</t>
+          <t>010423</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>招商瑞丰灵活配置混合C</t>
+          <t>国投瑞银价值成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3236</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1826,25 +2306,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000663</t>
+          <t>110012</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
+          <t>易方达科汇灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.32</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.32</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2220</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1854,25 +2344,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>350006</t>
+          <t>519020</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天治稳健双盈债券</t>
+          <t>国泰金泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>22.47</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010338</t>
+          <t>161233</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国投瑞银远见成长混合A</t>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>59.35</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010339</t>
+          <t>004932</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国投瑞银远见成长混合C</t>
+          <t>招商丰拓灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>59.35</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010389</t>
+          <t>008456</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>易方达科益混合A</t>
+          <t>招商瑞阳股债配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010390</t>
+          <t>002389</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>易方达科益混合C</t>
+          <t>招商安德灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010423</t>
+          <t>161225</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国投瑞银价值成长一年持有期混合A</t>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>74.94</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2022,25 +2572,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010424</t>
+          <t>000314</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国投瑞银价值成长一年持有期混合C</t>
+          <t>招商瑞丰灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>74.94</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>006952</t>
+          <t>001427</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中银景元回报混合</t>
+          <t>招商丰泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28.84</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001218</t>
+          <t>002657</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
+          <t>招商安裕灵活配置混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>88.37</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001427</t>
+          <t>002776</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合A</t>
+          <t>招商安荣灵活配置混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23.64</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -2134,25 +2724,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001446</t>
+          <t>008457</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合C</t>
+          <t>招商瑞阳股债配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23.64</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001576</t>
+          <t>002819</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国泰智能装备股票A</t>
+          <t>招商丰美灵活配置混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>011322</t>
+          <t>006952</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>国泰智能装备股票C</t>
+          <t>中银景元回报混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>110012</t>
+          <t>001907</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>易方达科汇灵活配置混合</t>
+          <t>国投瑞银境煊灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>79.22</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>519020</t>
+          <t>004933</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合A</t>
+          <t>招商丰拓灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>10</v>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -2274,25 +2914,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>519022</t>
+          <t>010339</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合C</t>
+          <t>国投瑞银远见成长混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+          <t>59.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>001907</t>
+          <t>010390</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合A</t>
+          <t>易方达科益混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>6</v>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>001908</t>
+          <t>002017</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合C</t>
+          <t>招商瑞丰灵活配置混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>6</v>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>161225</t>
+          <t>002390</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+          <t>招商安德灵活配置混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7.85</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>161232</t>
+          <t>010424</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
+          <t>国投瑞银价值成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>1</v>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>161233</t>
+          <t>001908</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+          <t>国投瑞银境煊灵活配置混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>22.72</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>2</v>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>005726</t>
+          <t>002658</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>国泰价值精选灵活配置混合A</t>
+          <t>招商安裕灵活配置混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>4</v>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>011324</t>
+          <t>519022</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>国泰价值精选灵活配置混合C</t>
+          <t>国泰金泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>4</v>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>002819</t>
+          <t>350006</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>招商丰美灵活配置混合A</t>
+          <t>天治稳健双盈债券</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>25.66</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>8</v>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>002820</t>
+          <t>001446</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>招商丰美灵活配置混合C</t>
+          <t>招商丰泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>25.66</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>8</v>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -2554,26 +3294,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>008456</t>
+          <t>011322</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>招商瑞阳股债配置混合A</t>
+          <t>国泰智能装备股票C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>22.38</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>7</v>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -2582,26 +3332,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>008457</t>
+          <t>011324</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>招商瑞阳股债配置混合C</t>
+          <t>国泰价值精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>22.38</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>7</v>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -2610,25 +3370,35 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>004932</t>
+          <t>002777</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>招商丰拓灵活配置混合A</t>
+          <t>招商安荣灵活配置混合C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>23.48</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2638,25 +3408,35 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>004933</t>
+          <t>002820</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>招商丰拓灵活配置混合C</t>
+          <t>招商丰美灵活配置混合C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>23.48</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002831-裕同科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002831-裕同科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3443,4 +3444,1694 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2814</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2113</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9060</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5570</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5176</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4766</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4478</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4409</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4238</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4114</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3954</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2359</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2322</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>37.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>57.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>64.52</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002831-裕同科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002831-裕同科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5134,4 +5135,1124 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3090</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9445</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7310</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6731</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5712</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5703</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5281</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4761</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4560</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4148</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3429</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>56.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>60.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>60.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>350006</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天治稳健双盈债券</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002831-裕同科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002831-裕同科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6255,4 +6256,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002831-裕同科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002831-裕同科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6264,7 +6265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6275,17 +6276,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6295,14 +6316,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.6</v>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4393</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -6311,14 +6354,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>43</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.09</v>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7695</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -6327,14 +6392,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>43</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.81</v>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7594</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -6343,13 +6430,1291 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6857</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6438</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6437</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5358</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4375</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4074</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3821</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3142</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3130</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2950</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2843</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2671</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2044</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>70.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>33.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>37.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>50.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.470000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>33</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>14.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002831-裕同科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002831-裕同科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7613,7 +7614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7624,17 +7625,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7644,14 +7665,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.470000000000001</v>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6358</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -7660,14 +7703,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.6</v>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6582</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -7676,14 +7741,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>43</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.09</v>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4372</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -7692,14 +7779,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.81</v>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4007</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -7708,13 +7817,585 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3293</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3159</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2702</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.470000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>43</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>33</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>14.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002831-裕同科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002831-裕同科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8278,7 +8279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8289,17 +8290,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8309,14 +8330,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.15</v>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1022</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -8325,14 +8368,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.470000000000001</v>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4271</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -8341,14 +8406,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.6</v>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7873</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -8357,14 +8444,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.09</v>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7021</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -8373,14 +8482,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>43</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.81</v>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5877</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -8389,13 +8520,981 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4683</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3578</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3536</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3182</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3149</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2205</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011527</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001181</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方改革机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013410</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011528</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.470000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>43</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>43</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>33</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>14.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002831-裕同科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002831-裕同科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>9.65</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>6.15</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>9.470000000000001</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>8.6</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>9.09</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>43</v>
       </c>
       <c r="D7" t="n">
-        <v>10.81</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>43</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>33</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>14.9</v>
       </c>
     </row>
@@ -600,6 +617,1732 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7535</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8638</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧睿见混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5367</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4536</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3228</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8014</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7535</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011710</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6997</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5852</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时成长优势混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5522</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5071</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4274</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3795</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3365</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3200</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2786</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2318</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014506</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013603</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>49.36</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011711</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时成长优势混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013604</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>49.36</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014507</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013410</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013881</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015594</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1681,7 +3424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2345,7 +4088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3693,7 +5436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4806,1696 +6549,6 @@
       </c>
       <c r="H29" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>121005</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银创新动力混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20.87</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2814</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010389</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达科益混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>23.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>77.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2113</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010338</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银远见成长混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.16</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>68.43</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9060</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003293</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达科瑞灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.66</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>71.15</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5570</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161219</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银新兴产业混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10.13</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>73.63</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5176</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005726</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰价值精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.53</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4766</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010423</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国投瑞银价值成长一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.73</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>76.56</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4478</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000663</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.98</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.12</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4409</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001218</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>86.62</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4238</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>121006</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国投瑞银稳健增长混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.02</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>71.73</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4114</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>161232</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>8.02</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3954</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>121008</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国投瑞银成长优选混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.91</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2359</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>110012</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>易方达科汇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>70.02</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2322</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>161233</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>24.11</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2320</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009114</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏扬景泓回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.47</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1154</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>161225</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.72</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>7.70</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1086</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010339</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国投瑞银远见成长混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>68.43</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0913</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>000314</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>招商瑞丰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>25.35</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0874</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005274</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中银景福回报混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>20.64</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0771</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002389</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商安德灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>27.53</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0766</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001427</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>招商丰泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>25.79</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0763</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>011649</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>易方达逆向投资混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>34.38</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0757</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006952</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中银景元回报混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>37.41</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0725</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002776</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>招商安荣灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>28.52</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0661</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>001520</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>国投瑞银研究精选股票</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>90.74</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0658</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002819</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>招商丰美灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>29.31</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0545</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001907</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>国投瑞银境煊灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0503</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>010465</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>鹏扬景创混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>42.70</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0415</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>121010</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>57.59</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0391</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>010424</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>国投瑞银价值成长一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>76.56</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0339</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>161222</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>62.45</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0300</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>010390</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>易方达科益混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>77.65</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0278</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>002017</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>招商瑞丰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>25.35</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0265</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>011650</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>易方达逆向投资混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>34.38</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0235</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>009115</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>鹏扬景泓回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>92.47</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0181</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>001266</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>国投瑞银招财灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>64.52</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0174</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>002390</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>招商安德灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>27.53</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0157</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>001908</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>国投瑞银境煊灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0136</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>010466</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>鹏扬景创混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>42.70</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>001446</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>招商丰泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>25.79</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>011324</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>国泰价值精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>7.53</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>002777</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>招商安荣灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>28.52</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>002820</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>招商丰美灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>29.31</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6560,36 +6613,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519712</t>
+          <t>121005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银阿尔法核心混合</t>
+          <t>国投瑞银创新动力混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>61.55</t>
+          <t>20.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.89</t>
+          <t>83.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8403</t>
+          <t>1.2814</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -6608,22 +6661,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.09</t>
+          <t>23.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>77.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4438</t>
+          <t>1.2113</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -6636,36 +6689,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>121005</t>
+          <t>010338</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银创新动力混合</t>
+          <t>国投瑞银远见成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.45</t>
+          <t>17.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0468</t>
+          <t>0.9060</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -6674,36 +6727,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001576</t>
+          <t>003293</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰智能装备股票A</t>
+          <t>易方达科瑞灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.15</t>
+          <t>12.66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>71.15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8760</t>
+          <t>0.5570</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -6712,32 +6765,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003293</t>
+          <t>161219</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达科瑞灵活配置混合</t>
+          <t>国投瑞银新兴产业混合(LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.13</t>
+          <t>10.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>82.37</t>
+          <t>73.63</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5532</t>
+          <t>0.5176</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -6760,26 +6813,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>94.72</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5168</t>
+          <t>0.4766</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -6788,36 +6841,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>161219</t>
+          <t>010423</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国投瑞银新兴产业混合(LOF)</t>
+          <t>国投瑞银价值成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.79</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>73.49</t>
+          <t>76.56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4877</t>
+          <t>0.4478</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -6826,36 +6879,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010338</t>
+          <t>000663</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国投瑞银远见成长混合A</t>
+          <t>国投瑞银美丽中国灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19.28</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>59.35</t>
+          <t>91.98</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3895</t>
+          <t>0.4409</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -6864,32 +6917,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>121006</t>
+          <t>001218</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国投瑞银稳健增长混合</t>
+          <t>国投瑞银精选收益灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>74.70</t>
+          <t>86.62</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3881</t>
+          <t>0.4238</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -6902,36 +6955,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161232</t>
+          <t>121006</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
+          <t>国投瑞银稳健增长混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>8.02</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>71.73</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3692</t>
+          <t>0.4114</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -6940,36 +6993,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000663</t>
+          <t>161232</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
+          <t>国投瑞银瑞盛灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.32</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>8.02</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.3675</t>
+          <t>0.3954</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -6978,36 +7031,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001218</t>
+          <t>121008</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
+          <t>国投瑞银成长优选混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>88.37</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3663</t>
+          <t>0.2359</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -7016,36 +7069,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010423</t>
+          <t>110012</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国投瑞银价值成长一年持有期混合A</t>
+          <t>易方达科汇灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>74.94</t>
+          <t>70.02</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.3236</t>
+          <t>0.2322</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -7054,36 +7107,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>110012</t>
+          <t>161233</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达科汇灵活配置混合</t>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>79.22</t>
+          <t>24.11</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.2220</t>
+          <t>0.2320</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -7092,32 +7145,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>519020</t>
+          <t>009114</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合A</t>
+          <t>鹏扬景泓回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1941</t>
+          <t>0.1154</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -7130,36 +7183,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>161233</t>
+          <t>161225</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>22.72</t>
+          <t>90.72</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1443</t>
+          <t>0.1086</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -7168,36 +7221,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004932</t>
+          <t>010339</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>招商丰拓灵活配置混合A</t>
+          <t>国投瑞银远见成长混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>23.48</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1189</t>
+          <t>0.0913</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -7206,36 +7259,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008456</t>
+          <t>000314</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>招商瑞阳股债配置混合A</t>
+          <t>招商瑞丰灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.01</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>22.38</t>
+          <t>25.35</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1161</t>
+          <t>0.0874</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -7244,36 +7297,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002389</t>
+          <t>005274</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>招商安德灵活配置混合A</t>
+          <t>中银景福回报混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>24.33</t>
+          <t>20.64</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0981</t>
+          <t>0.0771</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -7282,36 +7335,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>161225</t>
+          <t>002389</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+          <t>招商安德灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>27.53</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0966</t>
+          <t>0.0766</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -7320,36 +7373,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>000314</t>
+          <t>001427</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>招商瑞丰灵活配置混合A</t>
+          <t>招商丰泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>25.79</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0943</t>
+          <t>0.0763</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -7358,36 +7411,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001427</t>
+          <t>011649</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合A</t>
+          <t>易方达逆向投资混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23.64</t>
+          <t>34.38</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0899</t>
+          <t>0.0757</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -7396,36 +7449,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>002657</t>
+          <t>006952</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>招商安裕灵活配置混合A</t>
+          <t>中银景元回报混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21.81</t>
+          <t>37.41</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0849</t>
+          <t>0.0725</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -7444,26 +7497,26 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23.25</t>
+          <t>28.52</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0785</t>
+          <t>0.0661</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -7472,32 +7525,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>008457</t>
+          <t>001520</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>招商瑞阳股债配置混合C</t>
+          <t>国投瑞银研究精选股票</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>22.38</t>
+          <t>90.74</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0732</t>
+          <t>0.0658</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -7520,26 +7573,26 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>25.66</t>
+          <t>29.31</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0650</t>
+          <t>0.0545</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -7548,36 +7601,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>006952</t>
+          <t>001907</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中银景元回报混合</t>
+          <t>国投瑞银境煊灵活配置混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>28.84</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0598</t>
+          <t>0.0503</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -7586,36 +7639,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>001907</t>
+          <t>010465</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合A</t>
+          <t>鹏扬景创混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>42.70</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0545</t>
+          <t>0.0415</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -7624,36 +7677,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>004933</t>
+          <t>121010</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>招商丰拓灵活配置混合C</t>
+          <t>国投瑞银瑞源灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>23.48</t>
+          <t>57.59</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0541</t>
+          <t>0.0391</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -7662,36 +7715,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>010339</t>
+          <t>010424</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>国投瑞银远见成长混合C</t>
+          <t>国投瑞银价值成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>59.35</t>
+          <t>76.56</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0410</t>
+          <t>0.0339</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -7700,36 +7753,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>010390</t>
+          <t>161222</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>易方达科益混合C</t>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>62.45</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0329</t>
+          <t>0.0300</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -7738,36 +7791,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>002017</t>
+          <t>010390</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>招商瑞丰灵活配置混合C</t>
+          <t>易方达科益混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>77.65</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0254</t>
+          <t>0.0278</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -7776,36 +7829,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>002390</t>
+          <t>002017</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>招商安德灵活配置混合C</t>
+          <t>招商瑞丰灵活配置混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>24.33</t>
+          <t>25.35</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0246</t>
+          <t>0.0265</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -7814,32 +7867,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>010424</t>
+          <t>011650</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>国投瑞银价值成长一年持有期混合C</t>
+          <t>易方达逆向投资混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>74.94</t>
+          <t>34.38</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0246</t>
+          <t>0.0235</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -7852,36 +7905,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>001908</t>
+          <t>009115</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合C</t>
+          <t>鹏扬景泓回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0142</t>
+          <t>0.0181</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -7890,32 +7943,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>002658</t>
+          <t>001266</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>招商安裕灵活配置混合C</t>
+          <t>国投瑞银招财灵活配置混合</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>21.81</t>
+          <t>64.52</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0117</t>
+          <t>0.0174</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -7928,36 +7981,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>519022</t>
+          <t>002390</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合C</t>
+          <t>招商安德灵活配置混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>27.53</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0062</t>
+          <t>0.0157</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -7966,36 +8019,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>350006</t>
+          <t>001908</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天治稳健双盈债券</t>
+          <t>国投瑞银境煊灵活配置混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>22.47</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0053</t>
+          <t>0.0136</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -8004,36 +8057,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>001446</t>
+          <t>010466</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合C</t>
+          <t>鹏扬景创混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>23.64</t>
+          <t>42.70</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0049</t>
+          <t>0.0127</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -8042,36 +8095,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>011322</t>
+          <t>001446</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>国泰智能装备股票C</t>
+          <t>招商丰泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>25.79</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0069</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -8095,21 +8148,21 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>94.72</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -8133,21 +8186,21 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>23.25</t>
+          <t>28.52</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -8171,21 +8224,21 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>25.66</t>
+          <t>29.31</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -8194,6 +8247,1696 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8403</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4438</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0468</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8760</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5532</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5168</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4877</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3895</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3881</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3692</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3675</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3663</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3236</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2220</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>59.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>350006</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天治稳健双盈债券</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002831-裕同科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002831-裕同科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D2" t="n">
-        <v>16.75</v>
+        <v>14.47</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D3" t="n">
-        <v>9.65</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>6.15</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>9.470000000000001</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>8.6</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>9.09</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>43</v>
       </c>
       <c r="D8" t="n">
-        <v>10.81</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1340 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>43</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>33</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>14.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4200</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6789</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3210</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1926</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0656</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6419</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5698</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5638</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4076</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4061</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3915</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3892</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2692</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2017</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000014</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏聚利债券</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>350006</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天治稳健双盈债券</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1944,2452 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5079</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6323</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国长期成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1784</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9095</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8806</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7141</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时成长优势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6068</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5828</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5251</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4701</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4235</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4005</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3563</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3349</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2832</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2807</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>45.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014506</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013603</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011527</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012828</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国浦诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015594</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时成长优势混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013604</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长信优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012829</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国浦诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>45.40</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014507</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013410</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>016130</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰君安品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011528</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>016131</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰君安品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>016399</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015691</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国长期成长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2342,7 +6115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3424,7 +7197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4088,7 +7861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5436,7 +9209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6549,1696 +10322,6 @@
       </c>
       <c r="H29" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>121005</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银创新动力混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20.87</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2814</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010389</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达科益混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>23.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>77.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2113</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010338</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银远见成长混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.16</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>68.43</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9060</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003293</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达科瑞灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.66</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>71.15</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5570</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161219</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银新兴产业混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10.13</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>73.63</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5176</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005726</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰价值精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.53</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4766</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010423</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国投瑞银价值成长一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.73</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>76.56</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4478</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000663</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.98</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.12</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4409</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001218</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>86.62</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4238</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>121006</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国投瑞银稳健增长混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.02</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>71.73</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4114</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>161232</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>8.02</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3954</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>121008</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国投瑞银成长优选混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.91</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2359</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>110012</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>易方达科汇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>70.02</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2322</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>161233</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>24.11</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2320</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009114</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏扬景泓回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.47</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1154</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>161225</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.72</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>7.70</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1086</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010339</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国投瑞银远见成长混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>68.43</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0913</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>000314</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>招商瑞丰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>25.35</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0874</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005274</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中银景福回报混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>20.64</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0771</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002389</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商安德灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>27.53</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0766</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001427</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>招商丰泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>25.79</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0763</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>011649</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>易方达逆向投资混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>34.38</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0757</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006952</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中银景元回报混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>37.41</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0725</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002776</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>招商安荣灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>28.52</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0661</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>001520</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>国投瑞银研究精选股票</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>90.74</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0658</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002819</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>招商丰美灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>29.31</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0545</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001907</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>国投瑞银境煊灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0503</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>010465</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>鹏扬景创混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>42.70</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0415</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>121010</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>57.59</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0391</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>010424</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>国投瑞银价值成长一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>76.56</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0339</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>161222</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>62.45</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0300</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>010390</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>易方达科益混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>77.65</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0278</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>002017</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>招商瑞丰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>25.35</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0265</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>011650</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>易方达逆向投资混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>34.38</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0235</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>009115</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>鹏扬景泓回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>92.47</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0181</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>001266</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>国投瑞银招财灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>64.52</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0174</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>002390</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>招商安德灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>27.53</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0157</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>001908</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>国投瑞银境煊灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0136</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>010466</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>鹏扬景创混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>42.70</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>001446</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>招商丰泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>25.79</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>011324</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>国泰价值精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>7.53</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>002777</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>招商安荣灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>28.52</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>002820</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>招商丰美灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>29.31</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -8303,36 +10386,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519712</t>
+          <t>121005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银阿尔法核心混合</t>
+          <t>国投瑞银创新动力混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>61.55</t>
+          <t>20.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.89</t>
+          <t>83.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8403</t>
+          <t>1.2814</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -8351,22 +10434,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.09</t>
+          <t>23.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>77.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4438</t>
+          <t>1.2113</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -8379,36 +10462,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>121005</t>
+          <t>010338</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银创新动力混合</t>
+          <t>国投瑞银远见成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.45</t>
+          <t>17.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0468</t>
+          <t>0.9060</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -8417,36 +10500,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001576</t>
+          <t>003293</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰智能装备股票A</t>
+          <t>易方达科瑞灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.15</t>
+          <t>12.66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>71.15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8760</t>
+          <t>0.5570</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -8455,32 +10538,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003293</t>
+          <t>161219</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达科瑞灵活配置混合</t>
+          <t>国投瑞银新兴产业混合(LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.13</t>
+          <t>10.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>82.37</t>
+          <t>73.63</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5532</t>
+          <t>0.5176</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -8503,26 +10586,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>94.72</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5168</t>
+          <t>0.4766</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -8531,36 +10614,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>161219</t>
+          <t>010423</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国投瑞银新兴产业混合(LOF)</t>
+          <t>国投瑞银价值成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.79</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>73.49</t>
+          <t>76.56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4877</t>
+          <t>0.4478</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -8569,36 +10652,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010338</t>
+          <t>000663</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国投瑞银远见成长混合A</t>
+          <t>国投瑞银美丽中国灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19.28</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>59.35</t>
+          <t>91.98</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3895</t>
+          <t>0.4409</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -8607,32 +10690,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>121006</t>
+          <t>001218</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国投瑞银稳健增长混合</t>
+          <t>国投瑞银精选收益灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>74.70</t>
+          <t>86.62</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3881</t>
+          <t>0.4238</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -8645,36 +10728,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161232</t>
+          <t>121006</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
+          <t>国投瑞银稳健增长混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>8.02</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>71.73</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3692</t>
+          <t>0.4114</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -8683,36 +10766,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000663</t>
+          <t>161232</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
+          <t>国投瑞银瑞盛灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.32</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>8.02</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.3675</t>
+          <t>0.3954</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -8721,36 +10804,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001218</t>
+          <t>121008</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
+          <t>国投瑞银成长优选混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>88.37</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3663</t>
+          <t>0.2359</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -8759,36 +10842,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010423</t>
+          <t>110012</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国投瑞银价值成长一年持有期混合A</t>
+          <t>易方达科汇灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>74.94</t>
+          <t>70.02</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.3236</t>
+          <t>0.2322</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -8797,36 +10880,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>110012</t>
+          <t>161233</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达科汇灵活配置混合</t>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>79.22</t>
+          <t>24.11</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.2220</t>
+          <t>0.2320</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -8835,32 +10918,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>519020</t>
+          <t>009114</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合A</t>
+          <t>鹏扬景泓回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1941</t>
+          <t>0.1154</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -8873,36 +10956,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>161233</t>
+          <t>161225</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>22.72</t>
+          <t>90.72</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1443</t>
+          <t>0.1086</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -8911,36 +10994,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004932</t>
+          <t>010339</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>招商丰拓灵活配置混合A</t>
+          <t>国投瑞银远见成长混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>23.48</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1189</t>
+          <t>0.0913</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -8949,36 +11032,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008456</t>
+          <t>000314</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>招商瑞阳股债配置混合A</t>
+          <t>招商瑞丰灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.01</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>22.38</t>
+          <t>25.35</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1161</t>
+          <t>0.0874</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -8987,36 +11070,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002389</t>
+          <t>005274</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>招商安德灵活配置混合A</t>
+          <t>中银景福回报混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>24.33</t>
+          <t>20.64</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0981</t>
+          <t>0.0771</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -9025,36 +11108,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>161225</t>
+          <t>002389</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+          <t>招商安德灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>27.53</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0966</t>
+          <t>0.0766</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -9063,36 +11146,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>000314</t>
+          <t>001427</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>招商瑞丰灵活配置混合A</t>
+          <t>招商丰泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>25.79</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0943</t>
+          <t>0.0763</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -9101,36 +11184,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001427</t>
+          <t>011649</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合A</t>
+          <t>易方达逆向投资混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23.64</t>
+          <t>34.38</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0899</t>
+          <t>0.0757</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -9139,36 +11222,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>002657</t>
+          <t>006952</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>招商安裕灵活配置混合A</t>
+          <t>中银景元回报混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21.81</t>
+          <t>37.41</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0849</t>
+          <t>0.0725</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -9187,26 +11270,26 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23.25</t>
+          <t>28.52</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0785</t>
+          <t>0.0661</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -9215,32 +11298,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>008457</t>
+          <t>001520</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>招商瑞阳股债配置混合C</t>
+          <t>国投瑞银研究精选股票</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>22.38</t>
+          <t>90.74</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0732</t>
+          <t>0.0658</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -9263,26 +11346,26 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>25.66</t>
+          <t>29.31</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0650</t>
+          <t>0.0545</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -9291,36 +11374,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>006952</t>
+          <t>001907</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中银景元回报混合</t>
+          <t>国投瑞银境煊灵活配置混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>28.84</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0598</t>
+          <t>0.0503</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -9329,36 +11412,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>001907</t>
+          <t>010465</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合A</t>
+          <t>鹏扬景创混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>42.70</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0545</t>
+          <t>0.0415</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -9367,36 +11450,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>004933</t>
+          <t>121010</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>招商丰拓灵活配置混合C</t>
+          <t>国投瑞银瑞源灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>23.48</t>
+          <t>57.59</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0541</t>
+          <t>0.0391</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -9405,36 +11488,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>010339</t>
+          <t>010424</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>国投瑞银远见成长混合C</t>
+          <t>国投瑞银价值成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>59.35</t>
+          <t>76.56</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0410</t>
+          <t>0.0339</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -9443,36 +11526,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>010390</t>
+          <t>161222</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>易方达科益混合C</t>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>62.45</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0329</t>
+          <t>0.0300</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -9481,36 +11564,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>002017</t>
+          <t>010390</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>招商瑞丰灵活配置混合C</t>
+          <t>易方达科益混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>77.65</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0254</t>
+          <t>0.0278</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -9519,36 +11602,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>002390</t>
+          <t>002017</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>招商安德灵活配置混合C</t>
+          <t>招商瑞丰灵活配置混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>24.33</t>
+          <t>25.35</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0246</t>
+          <t>0.0265</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -9557,32 +11640,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>010424</t>
+          <t>011650</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>国投瑞银价值成长一年持有期混合C</t>
+          <t>易方达逆向投资混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>74.94</t>
+          <t>34.38</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0246</t>
+          <t>0.0235</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -9595,36 +11678,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>001908</t>
+          <t>009115</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合C</t>
+          <t>鹏扬景泓回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0142</t>
+          <t>0.0181</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -9633,32 +11716,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>002658</t>
+          <t>001266</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>招商安裕灵活配置混合C</t>
+          <t>国投瑞银招财灵活配置混合</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>21.81</t>
+          <t>64.52</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0117</t>
+          <t>0.0174</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -9671,36 +11754,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>519022</t>
+          <t>002390</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合C</t>
+          <t>招商安德灵活配置混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>27.53</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0062</t>
+          <t>0.0157</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -9709,36 +11792,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>350006</t>
+          <t>001908</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天治稳健双盈债券</t>
+          <t>国投瑞银境煊灵活配置混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>22.47</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0053</t>
+          <t>0.0136</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -9747,36 +11830,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>001446</t>
+          <t>010466</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合C</t>
+          <t>鹏扬景创混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>23.64</t>
+          <t>42.70</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0049</t>
+          <t>0.0127</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -9785,36 +11868,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>011322</t>
+          <t>001446</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>国泰智能装备股票C</t>
+          <t>招商丰泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>25.79</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0069</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -9838,21 +11921,21 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>94.72</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -9876,21 +11959,21 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>23.25</t>
+          <t>28.52</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -9914,21 +11997,21 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>25.66</t>
+          <t>29.31</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -9942,7 +12025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10003,26 +12086,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.01</t>
+          <t>61.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.91</t>
+          <t>92.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.4200</t>
+          <t>1.8403</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -10031,36 +12114,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519697</t>
+          <t>010389</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银优势行业混合</t>
+          <t>易方达科益混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>67.14</t>
+          <t>28.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.72</t>
+          <t>77.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.6789</t>
+          <t>1.4438</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -10079,12 +12162,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27.07</t>
+          <t>21.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.08</t>
+          <t>84.97</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -10094,11 +12177,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3210</t>
+          <t>1.0468</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -10117,26 +12200,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17.72</t>
+          <t>12.15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.60</t>
+          <t>94.69</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.1926</t>
+          <t>0.8760</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -10145,36 +12228,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005001</t>
+          <t>003293</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>交银施罗德持续成长主题混合</t>
+          <t>易方达科瑞灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28.19</t>
+          <t>11.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>82.37</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.0656</t>
+          <t>0.5532</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -10193,26 +12276,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.48</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.57</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6419</t>
+          <t>0.5168</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -10231,26 +12314,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14.07</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>74.23</t>
+          <t>73.49</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5698</t>
+          <t>0.4877</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -10259,36 +12342,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001218</t>
+          <t>010338</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
+          <t>国投瑞银远见成长混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11.53</t>
+          <t>19.28</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>86.88</t>
+          <t>59.35</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.5638</t>
+          <t>0.3895</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -10307,26 +12390,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.04</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>72.13</t>
+          <t>74.70</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.4076</t>
+          <t>0.3881</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -10335,36 +12418,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519020</t>
+          <t>161232</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合A</t>
+          <t>国投瑞银瑞盛灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.4061</t>
+          <t>0.3692</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -10373,36 +12456,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>161232</t>
+          <t>000663</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
+          <t>国投瑞银美丽中国灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>91.32</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.3915</t>
+          <t>0.3675</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -10411,36 +12494,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000663</t>
+          <t>001218</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
+          <t>国投瑞银精选收益灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>88.37</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3892</t>
+          <t>0.3663</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -10449,32 +12532,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>003293</t>
+          <t>010423</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>易方达科瑞灵活配置混合</t>
+          <t>国投瑞银价值成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11.08</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>81.13</t>
+          <t>74.94</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.2692</t>
+          <t>0.3236</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -10487,32 +12570,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>163823</t>
+          <t>110012</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中银稳健策略灵活配置混合</t>
+          <t>易方达科汇灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>34.36</t>
+          <t>79.22</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.2039</t>
+          <t>0.2220</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -10525,36 +12608,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008773</t>
+          <t>519020</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中银景泰回报混合</t>
+          <t>国泰金泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12.53</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>22.05</t>
+          <t>92.17</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.2017</t>
+          <t>0.1941</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -10563,36 +12646,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005274</t>
+          <t>161233</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中银景福回报混合</t>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11.16</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>25.51</t>
+          <t>22.72</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1763</t>
+          <t>0.1443</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -10601,36 +12684,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>161233</t>
+          <t>004932</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+          <t>招商丰拓灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>21.86</t>
+          <t>23.48</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1521</t>
+          <t>0.1189</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -10639,36 +12722,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>000014</t>
+          <t>008456</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华夏聚利债券</t>
+          <t>招商瑞阳股债配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27.65</t>
+          <t>22.38</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1391</t>
+          <t>0.1161</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -10677,32 +12760,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>006952</t>
+          <t>002389</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中银景元回报混合</t>
+          <t>招商安德灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27.14</t>
+          <t>24.33</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.1179</t>
+          <t>0.0981</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -10715,36 +12798,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>110012</t>
+          <t>161225</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>易方达科汇灵活配置混合</t>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>78.35</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1046</t>
+          <t>0.0966</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -10753,36 +12836,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>161225</t>
+          <t>000314</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+          <t>招商瑞丰灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>22.20</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.1021</t>
+          <t>0.0943</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -10791,36 +12874,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>007318</t>
+          <t>001427</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中银民丰回报混合</t>
+          <t>招商丰泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23.70</t>
+          <t>23.64</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.1012</t>
+          <t>0.0899</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -10829,36 +12912,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>002535</t>
+          <t>002657</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中银鑫利灵活配置混合A</t>
+          <t>招商安裕灵活配置混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>24.62</t>
+          <t>21.81</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0846</t>
+          <t>0.0849</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -10867,36 +12950,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>002288</t>
+          <t>002776</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中银稳进策略灵活配置混合</t>
+          <t>招商安荣灵活配置混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>23.25</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0722</t>
+          <t>0.0785</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -10905,32 +12988,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001907</t>
+          <t>008457</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合A</t>
+          <t>招商瑞阳股债配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>22.38</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0523</t>
+          <t>0.0732</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -10943,36 +13026,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>002536</t>
+          <t>002819</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中银鑫利灵活配置混合C</t>
+          <t>招商丰美灵活配置混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>24.62</t>
+          <t>25.66</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0275</t>
+          <t>0.0650</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -10981,32 +13064,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>008778</t>
+          <t>006952</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>嘉实中证500指数增强A</t>
+          <t>中银景元回报混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>28.84</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0126</t>
+          <t>0.0598</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -11019,36 +13102,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>001908</t>
+          <t>001907</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合C</t>
+          <t>国投瑞银境煊灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.0545</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -11057,36 +13140,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>350006</t>
+          <t>004933</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天治稳健双盈债券</t>
+          <t>招商丰拓灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>21.97</t>
+          <t>23.48</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0541</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -11095,36 +13178,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>519022</t>
+          <t>010339</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合C</t>
+          <t>国投瑞银远见成长混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>59.35</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0082</t>
+          <t>0.0410</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -11133,36 +13216,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>008779</t>
+          <t>010390</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>嘉实中证500指数增强C</t>
+          <t>易方达科益混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>77.88</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>0.0329</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -11171,36 +13254,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>011324</t>
+          <t>002017</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>国泰价值精选灵活配置混合C</t>
+          <t>招商瑞丰灵活配置混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>22.20</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>7.57</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0254</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -11209,36 +13292,416 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>350006</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天治稳健双盈债券</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>011322</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>国泰智能装备股票C</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>87.60</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>0.0007</t>
         </is>
       </c>
-      <c r="H34" t="n">
-        <v>3</v>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
